--- a/reports/resnet18_23_no_MMTM/report.xlsx
+++ b/reports/resnet18_23_no_MMTM/report.xlsx
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.755544889892716</v>
+        <v>0.7701119894598156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07303399356929699</v>
+        <v>0.09845377633675581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4785714285714285</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2135901409225616</v>
+        <v>0.2182503607205462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8950915750915751</v>
+        <v>0.8511355311355311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1197570297140088</v>
+        <v>0.1312635032902953</v>
       </c>
       <c r="H2" t="n">
         <v>0.6086956521739131</v>
@@ -654,82 +654,82 @@
         <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L2" t="n">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="O2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="R2" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="S2" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="AG2" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AK2" t="n">
         <v>0.9333333333333333</v>
